--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1198,7 +1198,7 @@
     <t>PlanDefinition.action</t>
   </si>
   <si>
-    <t>14</t>
+    <t>12</t>
   </si>
   <si>
     <t>Action defined by the plan</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:15:52+00:00</t>
+    <t>2024-03-25T20:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:47:37+00:00</t>
+    <t>2024-03-25T21:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T21:26:55+00:00</t>
+    <t>2024-03-25T22:06:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:06:12+00:00</t>
+    <t>2024-03-25T22:18:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:18:18+00:00</t>
+    <t>2024-03-25T22:49:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:49:56+00:00</t>
+    <t>2024-03-26T03:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T03:52:16+00:00</t>
+    <t>2024-03-26T20:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T20:10:39+00:00</t>
+    <t>2024-04-15T18:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>KinD Lab (http://fhir.kindlab.sickkids.ca)</t>
   </si>
   <si>
     <t>Description</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T18:23:02+00:00</t>
+    <t>2024-04-16T16:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://voicecollab.ai/fhir/StructureDefinition/vbai-cohort-protocol</t>
+    <t>https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-cohort-protocol</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T16:30:12+00:00</t>
+    <t>2024-05-13T19:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-cohort-protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T19:43:18+00:00</t>
+    <t>2024-05-29T18:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
